--- a/pre/OFFERS-120/ru/ru.xlsx
+++ b/pre/OFFERS-120/ru/ru.xlsx
@@ -1098,7 +1098,7 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>до 5 августа</v>
+        <v xml:space="preserve">до </v>
       </c>
     </row>
     <row r="145">
@@ -1463,7 +1463,7 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Admin</v>
+        <v>Александра Александрова</v>
       </c>
     </row>
     <row r="218">
@@ -1762,7 +1762,7 @@
   <sheetData>
     <row r="1" xml:space="preserve">
       <c r="A1" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;!DOCTYPE html&gt;&lt;html lang="en"&gt;&lt;head&gt;
+        <v xml:space="preserve">&lt;!DOCTYPE html&gt;&lt;html lang="ru"&gt;&lt;head&gt;
   &lt;meta charset="UTF-8"&gt;
   &lt;meta name="viewport" content="width=device-width, initial-scale=1.0"&gt;
   &lt;title&gt;&lt;span data-translate="1"&gt;Fortunella&lt;/span&gt;&lt;/title&gt;
@@ -1998,7 +1998,7 @@
             &lt;form action class&gt;
               &lt;div class="input"&gt;
                 &lt;span&gt;&lt;span data-translate="95"&gt;Укажите свой пол:&lt;/span&gt;&lt;/span&gt;
-                &lt;select name="select" required&gt;
+                &lt;select name="select" class="select" required&gt;
                   &lt;option value="value1"&gt;&lt;span data-translate="96"&gt;Женский&lt;/span&gt;&lt;/option&gt;
                   &lt;option value="value2"&gt;&lt;span data-translate="97"&gt;Мужской&lt;/span&gt;&lt;/option&gt;
                 &lt;/select&gt;
@@ -2017,12 +2017,12 @@
               &lt;/div&gt;
               &lt;div class="calculator__scale"&gt;
                 &lt;p&gt;&lt;span data-translate="101"&gt;Оцените уровень своей физической активности от 0 до 10:&lt;/span&gt;&lt;/p&gt;
-                &lt;div class="box"&gt;</v>
+                &lt;d</v>
       </c>
     </row>
     <row r="6" xml:space="preserve">
       <c r="A6" t="str" xml:space="preserve">
-        <v xml:space="preserve">
+        <v xml:space="preserve">iv class="box"&gt;
                   &lt;button type="button"&gt;1&lt;/button&gt;
                   &lt;button type="button"&gt;2&lt;/button&gt;
                   &lt;button type="button"&gt;3&lt;/button&gt;
@@ -2070,12 +2070,12 @@
                 можно сбросить от 22 до 47 килограммов.&lt;/span&gt;&lt;/p&gt;
             &lt;/div&gt;
           &lt;/div&gt;
-  &lt;p&gt;&lt;b&gt;&lt;span data-translate="120"&gt;Совет редакции:&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="121"&gt;приём &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="122"&gt;капель Fortunella&lt;/span&gt;&lt;/a&gt;&lt;span data-tra</v>
+  &lt;p&gt;&lt;b&gt;&lt;span data-translate="120"&gt;Совет редакции:&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="121"&gt;приём &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="122"&gt;капель Fortunella&lt;/span&gt;&lt;/a</v>
       </c>
     </row>
     <row r="7" xml:space="preserve">
       <c r="A7" t="str" xml:space="preserve">
-        <v xml:space="preserve">nslate="123"&gt;на голодный желудок подавляет чувство
+        <v xml:space="preserve">&gt;&lt;span data-translate="123"&gt;на голодный желудок подавляет чувство
     голода, поэтому вы наедитесь и половиной
     привычной порции.&lt;/span&gt;&lt;/p&gt;
         &lt;/div&gt;
@@ -2116,12 +2116,12 @@
           &lt;p&gt;&lt;span data-translate="132"&gt;Возмутительно, что капли Фортунелла не продаются в аптеках. В США их можно купить в обычном супермаркете.
             Пришло время
             побороть ожирение раз и навсегда.
-            &lt;/span&gt;&lt;span&gt;&lt;span data-translate="133"&gt;Урсула Шульц, писатель, заслуженны</v>
+            &lt;/span&gt;&lt;span&gt;&lt;span data-translate="133"&gt;Урсула Шульц, писат</v>
       </c>
     </row>
     <row r="8" xml:space="preserve">
       <c r="A8" t="str" xml:space="preserve">
-        <v xml:space="preserve">й диетолог, Германия&lt;/span&gt;&lt;/span&gt;
+        <v xml:space="preserve">ель, заслуженный диетолог, Германия&lt;/span&gt;&lt;/span&gt;
           &lt;/p&gt;
           &lt;img src="img/blog_ava_3.png" alt class="right"&gt;
         &lt;/div&gt;
@@ -2141,17 +2141,17 @@
           &lt;/div&gt;
         &lt;/div&gt;
         &lt;div class="blog__box border text"&gt;
-          &lt;p&gt;&lt;span data-translate="137"&gt;Доказано, что &lt;/span&gt;&lt;b&gt;&lt;span data-translate="138"&gt;август&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="139"&gt;– лучшее время для начала курса похудения с каплями Fortunella. Благодаря
+          &lt;p&gt;&lt;span data-translate="137"&gt;Доказано, что &lt;/span&gt;&lt;b class="set-month"&gt;&lt;span data-translate="138"&gt;август&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="139"&gt;– лучшее время для начала курса похудения с каплями Fortunella. Благодаря
             изменениям средней
             температуры и ускорению обмена веществ, эффект от приёма вырастает на 43%.&lt;/span&gt;&lt;/p&gt;
         &lt;/div&gt;
         &lt;h2&gt;&lt;span data-translate="140"&gt;Внимание!&lt;/span&gt;&lt;/h2&gt;
-        &lt;p&gt;&lt;span data-translate="141"&gt;Остерегайтесь подделок! Капли Фортунелла продаются лишь &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="142"&gt;одним производителем.&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="143"&gt;И &lt;/span&gt;&lt;b&gt;&lt;span data-translate="144"&gt;до 5 августа&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="145"&gt;включительно вы можете принять участие в беспроигрышной акции, где можно выиграть &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="146"&gt;скидку до 50%!&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span data-translate="141"&gt;Остерегайтесь подделок! Капли Фортунелла продаются лишь &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="142"&gt;одним производителем.&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="143"&gt;И &lt;/span&gt;&lt;b&gt;&lt;span data-translate="144"&gt;до &lt;/span&gt;&lt;span class="get-date" data-day-delay="-9"&gt;&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="145"&gt;включительно вы можете принять участие в беспроигрышной акции, где можно выиграть &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="146"&gt;скидку до 50%!&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
         &lt;div class="wheel-wrapper"&gt;
           &lt;div class="wheel"&gt;
             &lt;img alt class="wheel-img" src="img/wheel.png"&gt;
             &lt;div class="wheel-cursor"&gt;
-              &lt;img alt src="img/0.png"&gt;&lt;span class="cursor-text lt48 lt68"&gt;&lt;span data-translate="147"&gt;Вперед!&lt;/span&gt;&lt;/span&gt;
+             &lt;span class="cursor-text lt48 lt68"&gt;&lt;span data-translate="147"&gt;Вперед!&lt;/span&gt;&lt;/span&gt;
             &lt;/div&gt;
           &lt;/div&gt;
           &lt;div class="form"&gt;
@@ -2163,13 +2163,13 @@
                   &lt;div class="pricle__item"&gt;&lt;span&gt;&lt;span data-translate="150"&gt;Новая цена&lt;/span&gt;&lt;/span&gt;&lt;b&gt;&lt;span data-translate="151"&gt;€ 39&lt;/span&gt;&lt;/b&gt;&lt;/div&gt;
                 &lt;/div&gt;
                 &lt;div class="chin timer "&gt;
-                  &lt;div class="timer__title"&gt;&lt;span data-translate="152"&gt;До конца акции осталось:&lt;/span&gt;&lt;/div&gt;
-                  &lt;div class="timer__wra</v>
+                  &lt;div class="timer__title"&gt;&lt;span data-translate="152"&gt;До конца акции осталось:&lt;/span</v>
       </c>
     </row>
     <row r="9" xml:space="preserve">
       <c r="A9" t="str" xml:space="preserve">
-        <v xml:space="preserve">pper"&gt;
+        <v xml:space="preserve">&gt;&lt;/div&gt;
+                  &lt;div class="timer__wrapper"&gt;
                     &lt;div class="t-hour"&gt;&lt;/div&gt;&lt;span data-translate="153"&gt;: &lt;/span&gt;&lt;div class="t-min"&gt;&lt;/div&gt;&lt;span data-translate="154"&gt;: &lt;/span&gt;&lt;div class="t-sec"&gt;&lt;/div&gt;
                   &lt;/div&gt;
                   &lt;div class="timer__desc"&gt;
@@ -2222,14 +2222,14 @@
           &lt;/div&gt;
         &lt;/div&gt;
         &lt;div class="comment right"&gt;
-          &lt;img src="img/ava2.png" alt&gt;
-          &lt;div class="text"&gt;
-      </v>
+          &lt;img src="img/av</v>
       </c>
     </row>
     <row r="10" xml:space="preserve">
       <c r="A10" t="str" xml:space="preserve">
-        <v xml:space="preserve">      &lt;b class="name"&gt;&lt;span data-translate="166"&gt;Admin&lt;/span&gt;&lt;/b&gt;
+        <v xml:space="preserve">a2.png" alt&gt;
+          &lt;div class="text"&gt;
+            &lt;b class="name"&gt;&lt;span data-translate="166"&gt;Admin&lt;/span&gt;&lt;/b&gt;
             &lt;div class="date"&gt;
               &lt;img src="img/date.svg" alt&gt;
               &lt;span class="get-date " data-day-delay="9"&gt;&lt;/span&gt;
@@ -2285,14 +2285,18 @@
             &lt;/div&gt;
             &lt;p&gt;&lt;span data-translate="179"&gt;Я в восторге от этого средства. Я за 6 недель похудела на 23,5 килограмма!!! Не изнуряя себя ни диетами,
               ни спортом,
-              только в самом начале немного уменьшила порцию, а уже буквально через три дня заметила, что аппетит
-              снизился и мне н</v>
+              только в самом начале немного уменьшила порцию, а уже буквально через три дня заме</v>
       </c>
     </row>
     <row r="11" xml:space="preserve">
       <c r="A11" t="str" xml:space="preserve">
-        <v xml:space="preserve">е
-              хочется объедаться на ночь. Оцените мои результаты) &lt;/span&gt;&lt;/p&gt; &lt;a href&gt;&lt;span data-translate="180"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
+        <v xml:space="preserve">тила, что аппетит
+              снизился и мне не
+              хочется объедаться на ночь. Оцените мои результаты) &lt;/span&gt;&lt;/p&gt;
+              &lt;div class="img"&gt;
+                &lt;img src="img/comm1.png" alt class="comm"&gt;
+              &lt;/div&gt;
+              &lt;a href&gt;&lt;span data-translate="180"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
           &lt;/div&gt;
         &lt;/div&gt;
         &lt;div class="comment right"&gt;
@@ -2350,16 +2354,16 @@
             &lt;img src="img/date.svg" alt&gt;
             &lt;span class="get-date " data-day-delay="9"&gt;&lt;/span&gt;
           &lt;/div&gt;
-          &lt;p&gt;&lt;span data-translate="194"&gt;Я уже давно не верю в обещания “минус 20 кг за месяц”, ну не бывает такого. Пила эти капли, за месяц
+          &lt;p&gt;&lt;span data-translate="194"&gt;Я уже давно не верю в обещания “минус 20 кг за месяц”, ну не бывает такого. Пила эти капли, за меся</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
+      <c r="A12" t="str" xml:space="preserve">
+        <v xml:space="preserve">ц
             похудела всего на 4
             килограмма, но с таким же успехом можно и на диете посидеть.
           &lt;/span&gt;&lt;/p&gt;
-          &lt;a href&gt;&lt;span data-translate="195"&gt;</v>
-      </c>
-    </row>
-    <row r="12" xml:space="preserve">
-      <c r="A12" t="str" xml:space="preserve">
-        <v xml:space="preserve">Ответить&lt;/span&gt;&lt;/a&gt;
+          &lt;a href&gt;&lt;span data-translate="195"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
         &lt;/div&gt;
       &lt;/div&gt;
       &lt;div class="comment right"&gt;
@@ -2420,14 +2424,14 @@
           &lt;div class="date"&gt;
             &lt;img src="img/date.svg" alt&gt;
             &lt;span class="get-date " data-day-delay="9"&gt;&lt;/span&gt;
-          &lt;/div&gt;
-          &lt;p&gt;&lt;span data-translate="209"&gt;Я похудела на 34 килограмма с каплями Fortunella!!! Выгляжу сногсшибательно. А самое главное, что вес не
-            возвращаетс</v>
+          &lt;</v>
       </c>
     </row>
     <row r="13" xml:space="preserve">
       <c r="A13" t="str" xml:space="preserve">
-        <v xml:space="preserve">я. Я
+        <v xml:space="preserve">/div&gt;
+          &lt;p&gt;&lt;span data-translate="209"&gt;Я похудела на 34 килограмма с каплями Fortunella!!! Выгляжу сногсшибательно. А самое главное, что вес не
+            возвращается. Я
             советую всем это средство. &lt;/span&gt;&lt;/p&gt; &lt;a href&gt;&lt;span data-translate="210"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
         &lt;/div&gt;
       &lt;/div&gt;
@@ -2462,7 +2466,7 @@
       &lt;div class="comment "&gt;
         &lt;img src="img/ava19.png" alt&gt;
         &lt;div class="text"&gt;
-          &lt;b class="name"&gt;&lt;span data-translate="217"&gt;Admin&lt;/span&gt;&lt;/b&gt;
+          &lt;b class="name"&gt;&lt;span data-translate="217"&gt;Александра Александрова&lt;/span&gt;&lt;/b&gt;
           &lt;div class="date"&gt;
             &lt;img src="img/date.svg" alt&gt;
             &lt;span class="get-date " data-day-delay="9"&gt;&lt;/span&gt;
@@ -2483,15 +2487,15 @@
             &lt;span class="get-date " data-day-delay="9"&gt;&lt;/span&gt;
           &lt;/div&gt;
           &lt;p&gt;&lt;span data-translate="221"&gt;Александра, здравствуйте. Вы купили подделку. Капли Fortunella в нашей стране продаются лишь одним
-            производителем, его
+            производит</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
+      <c r="A14" t="str" xml:space="preserve">
+        <v xml:space="preserve">елем, его
             сайт указан выше. В каждой упаковке есть инструкция, и конечно же никаких проблем со здоровьем капли не
             вызывают, а
-            наоборот нормализуют работу вс</v>
-      </c>
-    </row>
-    <row r="14" xml:space="preserve">
-      <c r="A14" t="str" xml:space="preserve">
-        <v xml:space="preserve">его организма. Закажите на официальном сайте, и вы увидите каких результатов
+            наоборот нормализуют работу всего организма. Закажите на официальном сайте, и вы увидите каких результатов
             можно
             добиться.
           &lt;/span&gt;&lt;/p&gt; &lt;a href&gt;&lt;span data-translate="222"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
@@ -2548,17 +2552,17 @@
             Заказала, понравилась
             доступная цена и натуральный безвредный состав. Химией себя тоже травить не хочется. Пью, аппетит
             намного меньше стал,
-            чувствую себя отлично - никаких побочных эффектов нет. На весах уже минус 6,5 килограмм, за 8 дней. Я
-            очень довольна! &lt;/span&gt;&lt;/p&gt; &lt;a href&gt;&lt;span data-translate="234"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
-        &lt;/div&gt;
-      &lt;/div&gt;
-      &lt;div class="comment "&gt;
-       </v>
+            чувствую себя отлично - никаких побочных эффектов нет. На весах уже ми</v>
       </c>
     </row>
     <row r="15" xml:space="preserve">
       <c r="A15" t="str" xml:space="preserve">
-        <v xml:space="preserve"> &lt;img src="img/ava25.png" alt&gt;
+        <v xml:space="preserve">нус 6,5 килограмм, за 8 дней. Я
+            очень довольна! &lt;/span&gt;&lt;/p&gt; &lt;a href&gt;&lt;span data-translate="234"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
+        &lt;/div&gt;
+      &lt;/div&gt;
+      &lt;div class="comment "&gt;
+        &lt;img src="img/ava25.png" alt&gt;
         &lt;div class="text"&gt;
           &lt;b class="name"&gt;&lt;span data-translate="235"&gt;Юлия Ковалева&lt;/span&gt;&lt;/b&gt;
           &lt;div class="date"&gt;
@@ -2621,17 +2625,17 @@
       &lt;div class="comment right"&gt;
         &lt;img src="img/ava30.png" alt&gt;
         &lt;div class="text"&gt;
-          &lt;b class="name"&gt;&lt;span data-translate="250"&gt;Юлия Ковалева&lt;/span&gt;&lt;/b&gt;
+          &lt;b class="name"&gt;&lt;span data-</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
+      <c r="A16" t="str" xml:space="preserve">
+        <v xml:space="preserve">translate="250"&gt;Юлия Ковалева&lt;/span&gt;&lt;/b&gt;
           &lt;div class="date"&gt;
             &lt;img src="img/date.svg" alt&gt;
             &lt;span class="get-date " data-day-delay="9"&gt;&lt;/span&gt;
           &lt;/div&gt;
- </v>
-      </c>
-    </row>
-    <row r="16" xml:space="preserve">
-      <c r="A16" t="str" xml:space="preserve">
-        <v xml:space="preserve">         &lt;p&gt;&lt;span data-translate="251"&gt;Вы были правы, как только я изменила дозировку, вес пошёл вниз. За неделю минус 5,5 килограмм!!!&lt;/span&gt;&lt;/p&gt; &lt;a href&gt;&lt;span data-translate="252"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
+          &lt;p&gt;&lt;span data-translate="251"&gt;Вы были правы, как только я изменила дозировку, вес пошёл вниз. За неделю минус 5,5 килограмм!!!&lt;/span&gt;&lt;/p&gt; &lt;a href&gt;&lt;span data-translate="252"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
         &lt;/div&gt;
       &lt;/div&gt;
       &lt;div class="comment right"&gt;
@@ -2660,7 +2664,7 @@
             закажите капли и вы быстро похудеете, без вреда для здоровья. Посмотрите на меня)
           &lt;/span&gt;&lt;/p&gt;
           &lt;div class="img"&gt;
-            &lt;img src="img/comm2.png" alt&gt;
+            &lt;img src="img/comm2.png" alt class="comm"&gt;
           &lt;/div&gt; &lt;a href&gt;&lt;span data-translate="258"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
         &lt;/div&gt;
       &lt;/div&gt;
@@ -2696,16 +2700,16 @@
           &lt;div class="img"&gt;
             &lt;img src="img/date.svg" alt&gt;
           &lt;/div&gt;
-          &lt;span class="get-date " data-day-delay="9"&gt;&lt;/span&gt;
+          &lt;span </v>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
+      <c r="A17" t="str" xml:space="preserve">
+        <v xml:space="preserve">class="get-date " data-day-delay="9"&gt;&lt;/span&gt;
         &lt;/div&gt;
         &lt;p&gt;&lt;span data-translate="262"&gt;Стресс – переедание: как разорвать цепочку за 6 простых шагов&lt;/span&gt;&lt;/p&gt;
         &lt;div class="img"&gt;
-        </v>
-      </c>
-    </row>
-    <row r="17" xml:space="preserve">
-      <c r="A17" t="str" xml:space="preserve">
-        <v xml:space="preserve">  &lt;img src="img/side3.png" alt&gt;
+          &lt;img src="img/side3.png" alt&gt;
         &lt;/div&gt;
       &lt;/a&gt;
     &lt;/div&gt;
@@ -2721,6 +2725,7 @@
   &lt;script src="js/timer.js"&gt;&lt;/script&gt;
   &lt;script src="js/common.js"&gt;&lt;/script&gt;
   &lt;script src="js/calc.js"&gt;&lt;/script&gt;
+  &lt;script src="js/local.js"&gt;&lt;/script&gt;
 &lt;script&gt;
   const currentLink = 'https://google.com'
   const link = document.querySelectorAll('a');
